--- a/data/trans_dic/P24_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,73</t>
+          <t>1,09; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,47</t>
+          <t>3,55; 11,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,32</t>
+          <t>5,38; 14,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,9</t>
+          <t>1,88; 8,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,96</t>
+          <t>4,22; 14,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 17,4</t>
+          <t>5,97; 14,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 21,37</t>
+          <t>10,83; 21,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,75; 20,13</t>
+          <t>15,66; 27,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,0</t>
+          <t>11,45; 21,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,18</t>
+          <t>11,14; 23,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,11</t>
+          <t>4,3; 9,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,62</t>
+          <t>8,48; 15,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 19,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 13,9</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 16,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,41</t>
+          <t>4,25; 14,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,22</t>
+          <t>4,19; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,4</t>
+          <t>6,99; 17,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,33</t>
+          <t>2,46; 11,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,47</t>
+          <t>8,49; 22,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,9</t>
+          <t>5,46; 15,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,75</t>
+          <t>9,46; 22,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,34</t>
+          <t>10,14; 21,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,97</t>
+          <t>7,06; 17,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 13,16</t>
+          <t>14,1; 36,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 15,62</t>
+          <t>5,94; 12,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,1</t>
+          <t>8,06; 16,29</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 17,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 12,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 26,49</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 13,38</t>
+          <t>0,0; 21,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 49,66</t>
+          <t>0,0; 68,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,42</t>
+          <t>0,0; 21,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 18,37</t>
+          <t>0,0; 19,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,68</t>
+          <t>0,0; 71,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 19,6</t>
+          <t>2,28; 20,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 17,59</t>
+          <t>5,32; 26,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 24,04</t>
+          <t>2,75; 21,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,18</t>
+          <t>7,86; 30,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 31,86</t>
+          <t>9,71; 35,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,94</t>
+          <t>2,56; 16,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 17,41</t>
+          <t>6,52; 46,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 17,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 21,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 51,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,45%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,93</t>
+          <t>3,25; 8,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,89</t>
+          <t>5,97; 19,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,1</t>
+          <t>6,71; 13,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,14</t>
+          <t>2,6; 7,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,41</t>
+          <t>8,39; 23,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,23</t>
+          <t>6,58; 12,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,88</t>
+          <t>11,61; 19,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,92</t>
+          <t>14,05; 21,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,73</t>
+          <t>11,1; 18,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,38</t>
+          <t>13,92; 25,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,2</t>
+          <t>5,6; 9,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,42</t>
+          <t>9,91; 16,65</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 16,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 11,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 20,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10691</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28530</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32999</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16419</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40201</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41475</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>79192</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>89135</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66022</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>88987</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52167</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>107722</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>122135</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>82441</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>129187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3989; 23555</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15281; 50609</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19702; 53925</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7165; 32534</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21762; 72682</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26003; 62539</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55107; 107108</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65680; 115329</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46665; 89344</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>62192; 128606</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34426; 76856</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79603; 145632</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>96669; 152425</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>59725; 109605</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>88846; 173302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24824</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28553</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36716</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17443</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60294</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33902</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63383</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50179</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37933</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93457</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58726</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91936</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>86895</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>55376</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>153751</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12962; 43042</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15044; 51382</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22249; 56926</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7950; 36906</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35011; 93948</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19109; 52972</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40246; 94614</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34155; 71241</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23635; 58287</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61092; 157423</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38885; 83782</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63253; 127862</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>61965; 114921</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>37545; 81224</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>109762; 224014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27325</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5125</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3487</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35866</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13625</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7594</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22566</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11736</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40950</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12719</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17528</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>58432</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18250</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 69818</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17079</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16973</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 85508</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1880; 16589</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5386; 27002</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2242; 17871</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6485; 25531</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10816; 39906</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4283; 27128</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13229; 93353</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4675; 28472</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7708; 35744</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24586; 118418</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40631</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>84408</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>74840</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37349</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>136361</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81998</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>156199</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>146909</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>117996</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>205010</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>122628</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>240607</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>221749</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>155345</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>341370</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24577; 61232</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53176; 178093</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51267; 104212</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20531; 60931</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87852; 245147</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57135; 110322</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>120193; 202427</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>117706; 183121</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>91568; 148514</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>153502; 275894</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>90976; 155093</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>190931; 320711</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>180833; 267157</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>122529; 193376</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>268964; 446590</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
